--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Desktop\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8255B2C-A0F4-4F83-9E2E-1EA26E5C01C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E77F24E-710A-4A71-B8CD-C95D1F252D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+  <si>
+    <t>code_module</t>
+  </si>
+  <si>
+    <t>code_presentation</t>
+  </si>
+  <si>
+    <t>id_student</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>highest_education</t>
+  </si>
+  <si>
+    <t>imd_band</t>
+  </si>
+  <si>
+    <t>age_band</t>
+  </si>
+  <si>
+    <t>num_of_prev_attempts</t>
+  </si>
+  <si>
+    <t>studied_credits</t>
+  </si>
+  <si>
+    <t>disability</t>
+  </si>
+  <si>
+    <t>final_result</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2013J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>East Anglian Region</t>
+  </si>
+  <si>
+    <t>HE Qualification</t>
+  </si>
+  <si>
+    <t>90-100%</t>
+  </si>
+  <si>
+    <t>55&lt;=</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>20-30%</t>
+  </si>
+  <si>
+    <t>35-55</t>
+  </si>
+  <si>
+    <t>North Western Region</t>
+  </si>
+  <si>
+    <t>A Level or Equivalent</t>
+  </si>
+  <si>
+    <t>30-40%</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>South East Region</t>
+  </si>
+  <si>
+    <t>50-60%</t>
+  </si>
+  <si>
+    <t>West Midlands Region</t>
+  </si>
+  <si>
+    <t>Lower Than A Level</t>
+  </si>
+  <si>
+    <t>0-35</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,14 +447,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>11391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>240</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>28400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>30268</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>31604</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>32885</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Desktop\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E77F24E-710A-4A71-B8CD-C95D1F252D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B13BF-2989-47B9-8D59-313983CE4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
   <si>
     <t>code_module</t>
   </si>
@@ -130,6 +130,39 @@
   </si>
   <si>
     <t>0-35</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>80-90%</t>
+  </si>
+  <si>
+    <t>70-80%</t>
+  </si>
+  <si>
+    <t>North Region</t>
+  </si>
+  <si>
+    <t>Post Graduate Qualification</t>
+  </si>
+  <si>
+    <t>South Region</t>
+  </si>
+  <si>
+    <t>60-70%</t>
+  </si>
+  <si>
+    <t>40-50%</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>South West Region</t>
   </si>
 </sst>
 </file>
@@ -140,7 +173,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,8 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,239 +486,805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
         <v>11391</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>240</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
         <v>28400</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
         <v>30268</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <v>31604</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
         <v>32885</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38053</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45462</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>120</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>52130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>53025</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>57506</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>58873</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>59185</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>62155</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>63400</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>65002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>70464</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>71361</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>74372</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45219</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>150</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>75091</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B13BF-2989-47B9-8D59-313983CE4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B335D-F23C-44DA-A26B-9BD605D7DCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>code_module</t>
   </si>
@@ -121,48 +121,6 @@
   </si>
   <si>
     <t>50-60%</t>
-  </si>
-  <si>
-    <t>West Midlands Region</t>
-  </si>
-  <si>
-    <t>Lower Than A Level</t>
-  </si>
-  <si>
-    <t>0-35</t>
-  </si>
-  <si>
-    <t>Wales</t>
-  </si>
-  <si>
-    <t>80-90%</t>
-  </si>
-  <si>
-    <t>70-80%</t>
-  </si>
-  <si>
-    <t>North Region</t>
-  </si>
-  <si>
-    <t>Post Graduate Qualification</t>
-  </si>
-  <si>
-    <t>South Region</t>
-  </si>
-  <si>
-    <t>60-70%</t>
-  </si>
-  <si>
-    <t>40-50%</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>South West Region</t>
   </si>
 </sst>
 </file>
@@ -489,7 +447,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,608 +643,228 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32885</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>60</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>38053</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>60</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45462</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>60</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45642</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>120</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>52130</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>53025</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>57506</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>60</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>58873</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>60</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>59185</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>60</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>62155</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>60</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>63400</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>60</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1">
-        <v>65002</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>60</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1">
-        <v>70464</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>60</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
-        <v>71361</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>60</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1">
-        <v>74372</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45219</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>150</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>75091</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>60</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Desktop\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B335D-F23C-44DA-A26B-9BD605D7DCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D07ED-7AF6-4F9A-AB17-42AE996BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>code_module</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>50-60%</t>
+  </si>
+  <si>
+    <t>2014J</t>
+  </si>
+  <si>
+    <t>80-90%</t>
   </si>
 </sst>
 </file>
@@ -131,7 +137,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -447,12 +453,12 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -528,7 +534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -566,7 +572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -604,7 +610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -642,21 +648,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6516</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -670,7 +700,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -684,7 +714,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -698,7 +728,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -712,7 +742,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -726,7 +756,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -740,7 +770,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -754,7 +784,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -768,7 +798,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -782,7 +812,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -796,7 +826,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -810,7 +840,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -824,7 +854,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -838,7 +868,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -852,7 +882,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Desktop\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D07ED-7AF6-4F9A-AB17-42AE996BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4A56AA-CCF2-4BFE-B21B-0820DF59BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="46">
   <si>
     <t>code_module</t>
   </si>
@@ -123,10 +123,46 @@
     <t>50-60%</t>
   </si>
   <si>
-    <t>2014J</t>
-  </si>
-  <si>
     <t>80-90%</t>
+  </si>
+  <si>
+    <t>West Midlands Region</t>
+  </si>
+  <si>
+    <t>Lower Than A Level</t>
+  </si>
+  <si>
+    <t>0-35</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>70-80%</t>
+  </si>
+  <si>
+    <t>North Region</t>
+  </si>
+  <si>
+    <t>Post Graduate Qualification</t>
+  </si>
+  <si>
+    <t>South Region</t>
+  </si>
+  <si>
+    <t>60-70%</t>
+  </si>
+  <si>
+    <t>40-50%</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>South West Region</t>
   </si>
 </sst>
 </file>
@@ -453,7 +489,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,248 +689,604 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32885</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38053</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1">
-        <v>6516</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45462</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45642</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>120</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>52130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>53025</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>57506</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>58873</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>59185</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>62155</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>63400</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>65002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>60</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>70464</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>60</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>60</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>71361</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>74372</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45219</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>150</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>75091</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
